--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05532524480433523</v>
+        <v>0.08088487903417277</v>
       </c>
       <c r="H2" t="n">
-        <v>66.16693956952869</v>
+        <v>142.9341768679684</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.14771219220557</v>
+        <v>4.44134465093321</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06931430455433833</v>
+        <v>0.04648364403733309</v>
       </c>
       <c r="H3" t="n">
-        <v>37.35206480388602</v>
+        <v>-7.888789634593024</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005303964501578559</v>
+        <v>0.01041997640085395</v>
       </c>
       <c r="H4" t="n">
-        <v>-89.10349268765695</v>
+        <v>-78.59311671249777</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03437478439981392</v>
+        <v>0.03246892077533953</v>
       </c>
       <c r="H5" t="n">
-        <v>-51.34809195433016</v>
+        <v>-54.04553147066402</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1363331812848963</v>
+        <v>-0.1326978706845083</v>
       </c>
       <c r="H6" t="n">
-        <v>15.90426726586102</v>
+        <v>-12.81369160811785</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1300190672821843</v>
+        <v>-0.1097200994837305</v>
       </c>
       <c r="H7" t="n">
-        <v>3.987409886830898</v>
+        <v>12.24741727245169</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1661291887496081</v>
+        <v>-0.206562490752058</v>
       </c>
       <c r="H8" t="n">
-        <v>-16.59290421218865</v>
+        <v>-3.707106391118387</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2841922234864883</v>
+        <v>-0.2820681065344315</v>
       </c>
       <c r="H9" t="n">
-        <v>-5.920566736054981</v>
+        <v>6.623737697541005</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01441332789077251</v>
+        <v>-0.002526207210898152</v>
       </c>
       <c r="H10" t="n">
-        <v>-1232.486650743984</v>
+        <v>-298.4896177368524</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0190105017607291</v>
+        <v>0.0529763427952776</v>
       </c>
       <c r="H11" t="n">
-        <v>-192.4483114973117</v>
+        <v>357.6246278172068</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2194962391590601</v>
+        <v>0.2045921078074739</v>
       </c>
       <c r="H12" t="n">
-        <v>3.579309967572073</v>
+        <v>-3.45388407246183</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2265296737757291</v>
+        <v>0.2471474590963822</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.602995107066311</v>
+        <v>5.170657895251288</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07916478754902588</v>
+        <v>-0.09754249552425306</v>
       </c>
       <c r="H14" t="n">
-        <v>-13.05375796309519</v>
+        <v>-7.130375603967234</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05513909692722909</v>
+        <v>-0.06384591347522807</v>
       </c>
       <c r="H15" t="n">
-        <v>-22.30508385680366</v>
+        <v>10.03655899387806</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.199226288697248</v>
+        <v>0.1941651232820105</v>
       </c>
       <c r="H16" t="n">
-        <v>4.060003479900977</v>
+        <v>1.416452299151378</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2053329301228298</v>
+        <v>0.1649067452392445</v>
       </c>
       <c r="H17" t="n">
-        <v>18.09591936056857</v>
+        <v>-5.15494189783468</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0440925595006338</v>
+        <v>0.03322200017487302</v>
       </c>
       <c r="H18" t="n">
-        <v>-18.6932023340057</v>
+        <v>-38.73854280926467</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07161894800106372</v>
+        <v>0.07092488587532939</v>
       </c>
       <c r="H19" t="n">
-        <v>-16.76048363374528</v>
+        <v>-17.56716115815409</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001034880772179357</v>
+        <v>-0.001774673287182854</v>
       </c>
       <c r="H20" t="n">
-        <v>-99.18698383537917</v>
+        <v>-113.9420705088761</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.00905959646173745</v>
+        <v>-0.01274770055281872</v>
       </c>
       <c r="H21" t="n">
-        <v>-83.18366580586897</v>
+        <v>76.33784312488055</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06474703307360578</v>
+        <v>0.06708850017157605</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.8054005135392392</v>
+        <v>2.781804644260772</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07308023924969007</v>
+        <v>0.05451989613140891</v>
       </c>
       <c r="H23" t="n">
-        <v>26.71396720908373</v>
+        <v>-5.467847374797718</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0523882317661423</v>
+        <v>0.05617158876119216</v>
       </c>
       <c r="H24" t="n">
-        <v>61.72147133526826</v>
+        <v>73.40062215214066</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04723581889422062</v>
+        <v>0.05647770659183458</v>
       </c>
       <c r="H25" t="n">
-        <v>60.49065516451368</v>
+        <v>91.89133046281785</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1273840015203359</v>
+        <v>0.1253192113716623</v>
       </c>
       <c r="H26" t="n">
-        <v>12.43923672087288</v>
+        <v>10.61668894772434</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1217702861760332</v>
+        <v>0.1302211121870272</v>
       </c>
       <c r="H27" t="n">
-        <v>35.01879259133023</v>
+        <v>44.38906148233324</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1148772499398016</v>
+        <v>0.09534778545756929</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.204759072636606</v>
+        <v>-18.83023265616269</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.09312434167138699</v>
+        <v>0.116251758135796</v>
       </c>
       <c r="H29" t="n">
-        <v>-22.15484432198156</v>
+        <v>-2.822011436512088</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07177359271459159</v>
+        <v>0.06752697697604823</v>
       </c>
       <c r="H30" t="n">
-        <v>6.760927880598159</v>
+        <v>0.4442225374215729</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07721856048060979</v>
+        <v>0.07046002553209867</v>
       </c>
       <c r="H31" t="n">
-        <v>12.53452559633979</v>
+        <v>2.684969745736134</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07511064000158919</v>
+        <v>0.05362211516532654</v>
       </c>
       <c r="H32" t="n">
-        <v>72.00953533156219</v>
+        <v>22.79904834905123</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08149292521946229</v>
+        <v>0.04560864291681201</v>
       </c>
       <c r="H33" t="n">
-        <v>49.97296560532018</v>
+        <v>-16.06555517490712</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007054214097551178</v>
+        <v>-0.0181228632988451</v>
       </c>
       <c r="H34" t="n">
-        <v>-136.9357298420412</v>
+        <v>5.10903503726121</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03965302096842824</v>
+        <v>0.0448639355258735</v>
       </c>
       <c r="H35" t="n">
-        <v>184.1966809734682</v>
+        <v>221.5437628828487</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02017605646655196</v>
+        <v>0.006833948126417453</v>
       </c>
       <c r="H36" t="n">
-        <v>-230.5140320178318</v>
+        <v>-55.79284157644523</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.03475433700272285</v>
+        <v>-0.008912709965029107</v>
       </c>
       <c r="H37" t="n">
-        <v>-377.5091720891807</v>
+        <v>-171.1669097089218</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06848632483978156</v>
+        <v>0.05364672900890752</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.539096437070341</v>
+        <v>-25.22353570049919</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0199839961794979</v>
+        <v>0.03163237605066666</v>
       </c>
       <c r="H39" t="n">
-        <v>-53.59304866251779</v>
+        <v>-26.54311365520348</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08641901767341234</v>
+        <v>0.08331649048196689</v>
       </c>
       <c r="H40" t="n">
-        <v>93.20247885651087</v>
+        <v>86.26632104953077</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.07718566283865606</v>
+        <v>0.09893546984896687</v>
       </c>
       <c r="H41" t="n">
-        <v>524.5137179862505</v>
+        <v>700.4926801658687</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06866515010991857</v>
+        <v>0.05905396319170902</v>
       </c>
       <c r="H42" t="n">
-        <v>31.34371074353798</v>
+        <v>12.95929080902095</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07274880243283416</v>
+        <v>0.06829320679610898</v>
       </c>
       <c r="H43" t="n">
-        <v>45.78951837762851</v>
+        <v>36.86044847900914</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09990619187727504</v>
+        <v>0.1078934540452418</v>
       </c>
       <c r="H44" t="n">
-        <v>-24.17037176854221</v>
+        <v>-18.10797353872965</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1521062702454692</v>
+        <v>0.1255948523476704</v>
       </c>
       <c r="H45" t="n">
-        <v>-15.22650648331978</v>
+        <v>-30.00213348179975</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01934699867138071</v>
+        <v>-0.003496426028974831</v>
       </c>
       <c r="H46" t="n">
-        <v>-55.95932564603899</v>
+        <v>92.04088640515711</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02357960168657757</v>
+        <v>-0.01689249050160457</v>
       </c>
       <c r="H47" t="n">
-        <v>800.1336317894845</v>
+        <v>-544.8581713674263</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.004870767366091713</v>
+        <v>-0.01535615523704638</v>
       </c>
       <c r="H48" t="n">
-        <v>-133.6104582625368</v>
+        <v>-205.9642918405117</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.006711351336627308</v>
+        <v>-0.009968117821884599</v>
       </c>
       <c r="H49" t="n">
-        <v>20.73341506148147</v>
+        <v>-79.32080232535371</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1444805616251881</v>
+        <v>0.1452862551936347</v>
       </c>
       <c r="H50" t="n">
-        <v>1.083799802821704</v>
+        <v>1.647492014833967</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1583727658369761</v>
+        <v>0.1318562817745093</v>
       </c>
       <c r="H51" t="n">
-        <v>20.92735184063348</v>
+        <v>0.6803846246968008</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06970003249381462</v>
+        <v>0.06418068579779181</v>
       </c>
       <c r="H52" t="n">
-        <v>12.5052300216178</v>
+        <v>3.596261870703252</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05674528504121495</v>
+        <v>0.0772003200424225</v>
       </c>
       <c r="H53" t="n">
-        <v>-7.251103761266217</v>
+        <v>26.18219237089199</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1273087982716732</v>
+        <v>-0.08360645623790813</v>
       </c>
       <c r="H54" t="n">
-        <v>42.5519657085937</v>
+        <v>6.383024233642555</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1012576715128281</v>
+        <v>-0.08146435915804266</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.436671651031352</v>
+        <v>21.50783340630619</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1598754351885421</v>
+        <v>0.1469627072998695</v>
       </c>
       <c r="H56" t="n">
-        <v>3.063241013605379</v>
+        <v>-5.260912005674392</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1680418227617634</v>
+        <v>0.1659851477786685</v>
       </c>
       <c r="H57" t="n">
-        <v>20.47209418884141</v>
+        <v>18.99762826002013</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_semester.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 250/DJI_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.03329497729672374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08088487903417277</v>
+        <v>0.07175570646056607</v>
       </c>
       <c r="H2" t="n">
-        <v>142.9341768679684</v>
+        <v>115.5151085434947</v>
       </c>
       <c r="I2" t="n">
-        <v>4.44134465093321</v>
+        <v>26.492478762591</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05046469789391711</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04648364403733309</v>
+        <v>0.08579977571796248</v>
       </c>
       <c r="H3" t="n">
-        <v>-7.888789634593024</v>
+        <v>70.01939830953505</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.0486758219816957</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01041997640085395</v>
+        <v>0.01285023862399317</v>
       </c>
       <c r="H4" t="n">
-        <v>-78.59311671249777</v>
+        <v>-73.60036646361013</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.07065454528020997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03246892077533953</v>
+        <v>0.03667978134259088</v>
       </c>
       <c r="H5" t="n">
-        <v>-54.04553147066402</v>
+        <v>-48.08574424034298</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.1176256789339563</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1326978706845083</v>
+        <v>-0.1391201148019596</v>
       </c>
       <c r="H6" t="n">
-        <v>-12.81369160811785</v>
+        <v>-18.27359133040317</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.1250334703246129</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1097200994837305</v>
+        <v>-0.100551325032716</v>
       </c>
       <c r="H7" t="n">
-        <v>12.24741727245169</v>
+        <v>19.58047331513407</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.1991787235611737</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.206562490752058</v>
+        <v>-0.183368182132807</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.707106391118387</v>
+        <v>7.937866628365454</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3020768871865665</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2820681065344315</v>
+        <v>-0.324975731188394</v>
       </c>
       <c r="H9" t="n">
-        <v>6.623737697541005</v>
+        <v>-7.580468739299771</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.001272715036535196</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.002526207210898152</v>
+        <v>0.001629175921530999</v>
       </c>
       <c r="H10" t="n">
-        <v>-298.4896177368524</v>
+        <v>28.00791023623183</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.02056338450408789</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0529763427952776</v>
+        <v>0.04036417612975503</v>
       </c>
       <c r="H11" t="n">
-        <v>357.6246278172068</v>
+        <v>296.2915011472496</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2119112776748354</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2045921078074739</v>
+        <v>0.1904457253719538</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.45388407246183</v>
+        <v>-10.12949973140133</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.234996589393344</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2471474590963822</v>
+        <v>0.2188362450285577</v>
       </c>
       <c r="H13" t="n">
-        <v>5.170657895251288</v>
+        <v>-6.876842088008631</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.09105026933242721</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09754249552425306</v>
+        <v>-0.05660425079313351</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.130375603967234</v>
+        <v>37.83186891356716</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.07096873214407551</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.06384591347522807</v>
+        <v>-0.04037792320375548</v>
       </c>
       <c r="H15" t="n">
-        <v>10.03655899387806</v>
+        <v>43.10462934326742</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1914532789110739</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1941651232820105</v>
+        <v>0.1735460257360774</v>
       </c>
       <c r="H16" t="n">
-        <v>1.416452299151378</v>
+        <v>-9.353328016551783</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.1738696232982535</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1649067452392445</v>
+        <v>0.1967038881324487</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.15494189783468</v>
+        <v>13.1329811389915</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.05422985625601025</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03322200017487302</v>
+        <v>0.06167126440519453</v>
       </c>
       <c r="H18" t="n">
-        <v>-38.73854280926467</v>
+        <v>13.72197653273247</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.0860396012945818</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07092488587532939</v>
+        <v>0.07253740722019078</v>
       </c>
       <c r="H19" t="n">
-        <v>-17.56716115815409</v>
+        <v>-15.69299935289367</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.01272890770458397</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.001774673287182854</v>
+        <v>0.01174711753588197</v>
       </c>
       <c r="H20" t="n">
-        <v>-113.9420705088761</v>
+        <v>-7.713074770338974</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.05387378935951025</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01274770055281872</v>
+        <v>-0.01576337121632567</v>
       </c>
       <c r="H21" t="n">
-        <v>76.33784312488055</v>
+        <v>70.74018478423035</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.06527274005722783</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06708850017157605</v>
+        <v>0.0551671531278437</v>
       </c>
       <c r="H22" t="n">
-        <v>2.781804644260772</v>
+        <v>-15.48209393465643</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.05767338901883199</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05451989613140891</v>
+        <v>0.05919744231952283</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.467847374797718</v>
+        <v>2.642558945501176</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.03239411027712896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.05617158876119216</v>
+        <v>0.03055488235836543</v>
       </c>
       <c r="H24" t="n">
-        <v>73.40062215214066</v>
+        <v>-5.677661473116837</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.02943213039151765</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05647770659183458</v>
+        <v>0.01407829811901563</v>
       </c>
       <c r="H25" t="n">
-        <v>91.89133046281785</v>
+        <v>-52.16690762190629</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.1132914143099023</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1253192113716623</v>
+        <v>0.1214295611502891</v>
       </c>
       <c r="H26" t="n">
-        <v>10.61668894772434</v>
+        <v>7.183374741995325</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.09018765746528551</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1302211121870272</v>
+        <v>0.1335262539901777</v>
       </c>
       <c r="H27" t="n">
-        <v>44.38906148233324</v>
+        <v>48.0537999798629</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.11746711685605</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09534778545756929</v>
+        <v>0.1069109252595103</v>
       </c>
       <c r="H28" t="n">
-        <v>-18.83023265616269</v>
+        <v>-8.986507781131444</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.119627664509486</v>
       </c>
       <c r="G29" t="n">
-        <v>0.116251758135796</v>
+        <v>0.1338838393465525</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.822011436512088</v>
+        <v>11.91712209339007</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.0672283335668115</v>
       </c>
       <c r="G30" t="n">
-        <v>0.06752697697604823</v>
+        <v>0.05603510954370651</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4442225374215729</v>
+        <v>-16.64956340466355</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06861766206541092</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07046002553209867</v>
+        <v>0.07033973392471024</v>
       </c>
       <c r="H31" t="n">
-        <v>2.684969745736134</v>
+        <v>2.509662683723797</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.04366655595970735</v>
       </c>
       <c r="G32" t="n">
-        <v>0.05362211516532654</v>
+        <v>0.079023832728689</v>
       </c>
       <c r="H32" t="n">
-        <v>22.79904834905123</v>
+        <v>80.97106811356278</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.0543384101864899</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04560864291681201</v>
+        <v>0.079023832728689</v>
       </c>
       <c r="H33" t="n">
-        <v>-16.06555517490712</v>
+        <v>45.42904817693142</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01909861840477803</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0181228632988451</v>
+        <v>0.01047382111804239</v>
       </c>
       <c r="H34" t="n">
-        <v>5.10903503726121</v>
+        <v>154.8407266748787</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.01395266856481344</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0448639355258735</v>
+        <v>0.02997738422266027</v>
       </c>
       <c r="H35" t="n">
-        <v>221.5437628828487</v>
+        <v>114.8505433452264</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0154589174471258</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006833948126417453</v>
+        <v>-0.008973995070044096</v>
       </c>
       <c r="H36" t="n">
-        <v>-55.79284157644523</v>
+        <v>-158.0506047770673</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01252367146681341</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.008912709965029107</v>
+        <v>0.004457551931185209</v>
       </c>
       <c r="H37" t="n">
-        <v>-171.1669097089218</v>
+        <v>-64.40698765535876</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.0717427997050479</v>
       </c>
       <c r="G38" t="n">
-        <v>0.05364672900890752</v>
+        <v>0.0622025812485167</v>
       </c>
       <c r="H38" t="n">
-        <v>-25.22353570049919</v>
+        <v>-13.29780618508528</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.04306250594694232</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03163237605066666</v>
+        <v>0.03849974700149494</v>
       </c>
       <c r="H39" t="n">
-        <v>-26.54311365520348</v>
+        <v>-10.59566517347874</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.04472976650449433</v>
       </c>
       <c r="G40" t="n">
-        <v>0.08331649048196689</v>
+        <v>0.06282465743436066</v>
       </c>
       <c r="H40" t="n">
-        <v>86.26632104953077</v>
+        <v>40.45380144796464</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01235932223995685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09893546984896687</v>
+        <v>0.07710818430837971</v>
       </c>
       <c r="H41" t="n">
-        <v>700.4926801658687</v>
+        <v>523.8868346606756</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.05227897835473393</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05905396319170902</v>
+        <v>0.0535117737405689</v>
       </c>
       <c r="H42" t="n">
-        <v>12.95929080902095</v>
+        <v>2.35810917625428</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.04989988528832228</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06829320679610898</v>
+        <v>0.06941806142794307</v>
       </c>
       <c r="H43" t="n">
-        <v>36.86044847900914</v>
+        <v>39.11467136015339</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.1317508659970314</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1078934540452418</v>
+        <v>0.1004535807871566</v>
       </c>
       <c r="H44" t="n">
-        <v>-18.10797353872965</v>
+        <v>-23.75489904603738</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.179426686261951</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1255948523476704</v>
+        <v>0.1091476905107295</v>
       </c>
       <c r="H45" t="n">
-        <v>-30.00213348179975</v>
+        <v>-39.1686416415331</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.04392984202713655</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.003496426028974831</v>
+        <v>0.01849816019712222</v>
       </c>
       <c r="H46" t="n">
-        <v>92.04088640515711</v>
+        <v>142.1084150170526</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.002619566790288774</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.01689249050160457</v>
+        <v>-0.004335443576684862</v>
       </c>
       <c r="H47" t="n">
-        <v>-544.8581713674263</v>
+        <v>-65.50231102169892</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.01449182075425856</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01535615523704638</v>
+        <v>-0.009835836566473627</v>
       </c>
       <c r="H48" t="n">
-        <v>-205.9642918405117</v>
+        <v>-167.8716410674847</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.005558818437472066</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.009968117821884599</v>
+        <v>0.01222607316051134</v>
       </c>
       <c r="H49" t="n">
-        <v>-79.32080232535371</v>
+        <v>319.9401419210821</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1429314706283479</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1452862551936347</v>
+        <v>0.1402935395337438</v>
       </c>
       <c r="H50" t="n">
-        <v>1.647492014833967</v>
+        <v>-1.845591515295671</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1309652145907328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1318562817745093</v>
+        <v>0.1550049061531065</v>
       </c>
       <c r="H51" t="n">
-        <v>0.6803846246968008</v>
+        <v>18.35578373806961</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.06195270431465436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06418068579779181</v>
+        <v>0.07965484767475919</v>
       </c>
       <c r="H52" t="n">
-        <v>3.596261870703252</v>
+        <v>28.5736410636679</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06118162839927899</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0772003200424225</v>
+        <v>0.06837753631612511</v>
       </c>
       <c r="H53" t="n">
-        <v>26.18219237089199</v>
+        <v>11.76155016647274</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.08930693985091673</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08360645623790813</v>
+        <v>-0.1069902304093575</v>
       </c>
       <c r="H54" t="n">
-        <v>6.383024233642555</v>
+        <v>-19.80057830663565</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.1037866104266609</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08146435915804266</v>
+        <v>-0.09731671039542743</v>
       </c>
       <c r="H55" t="n">
-        <v>21.50783340630619</v>
+        <v>6.233848474900645</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.1551236246950908</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1469627072998695</v>
+        <v>0.1689111944398531</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.260912005674392</v>
+        <v>8.888117314086101</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.1394860975010162</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1659851477786685</v>
+        <v>0.1648522972030135</v>
       </c>
       <c r="H57" t="n">
-        <v>18.99762826002013</v>
+        <v>18.18546805484503</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>